--- a/Mifos Automation Excels/Client/4602-Holiday-on-15-Jan-2013-Reschedule-repayment-on-20-Jan-2013-DISBon01JAN-REPAY09JAN.xlsx
+++ b/Mifos Automation Excels/Client/4602-Holiday-on-15-Jan-2013-Reschedule-repayment-on-20-Jan-2013-DISBon01JAN-REPAY09JAN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="9" r:id="rId1"/>
@@ -564,7 +564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -790,10 +790,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -801,7 +801,7 @@
     <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -841,17 +841,18 @@
       <c r="M1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -877,8 +878,9 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -914,14 +916,15 @@
       <c r="M3" s="6">
         <v>0</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="6"/>
+      <c r="O3" s="6">
         <v>842.56</v>
       </c>
-      <c r="P3" s="6">
+      <c r="Q3" s="6">
         <v>3.29</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -959,14 +962,15 @@
       <c r="M4" s="6">
         <v>0</v>
       </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N4" s="6"/>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -1002,14 +1006,15 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
-        <v>845.85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N5" s="6"/>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>845.85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -1045,14 +1050,15 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
-        <v>845.85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N6" s="6"/>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>845.85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1088,14 +1094,15 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
-        <v>845.85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N7" s="6"/>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>845.85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1131,14 +1138,15 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
-        <v>845.85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>845.85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1174,14 +1182,15 @@
       <c r="M9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
-        <v>845.85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N9" s="6"/>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>845.85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1217,14 +1226,15 @@
       <c r="M10" s="6">
         <v>0</v>
       </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6">
-        <v>845.85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N10" s="6"/>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>845.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1260,14 +1270,15 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="P11" s="6">
-        <v>845.85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N11" s="6"/>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>845.85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1303,14 +1314,15 @@
       <c r="M12" s="6">
         <v>0</v>
       </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="P12" s="6">
-        <v>845.85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N12" s="6"/>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>845.85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -1346,14 +1358,15 @@
       <c r="M13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="P13" s="6">
-        <v>845.85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N13" s="6"/>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>845.85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -1389,14 +1402,15 @@
       <c r="M14" s="6">
         <v>0</v>
       </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6">
-        <v>845.85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N14" s="6"/>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>845.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -1432,10 +1446,11 @@
       <c r="M15" s="6">
         <v>0</v>
       </c>
-      <c r="N15" s="6">
-        <v>0</v>
-      </c>
-      <c r="P15" s="6">
+      <c r="N15" s="6"/>
+      <c r="O15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="6">
         <v>951.03</v>
       </c>
     </row>
